--- a/data/trans_bre/P25_6-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_6-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>69,61%</t>
+          <t>23,44%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>48,67%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>53,55%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 7,99</t>
+          <t>-4,4; 14,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 9,73</t>
+          <t>-3,34; 9,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 9,83</t>
+          <t>-0,13; 11,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 12,11</t>
+          <t>-3,09; 16,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,93; 80,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 131,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 123,21</t>
+          <t>-26,96; 202,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 184,61</t>
+          <t>-23,89; 116,59</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 135,14</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-16,2; 240,35</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-27,33%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>-22,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-41,52%</t>
+          <t>-22,47%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,9%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,48</t>
+          <t>-5,11; 3,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,78</t>
+          <t>-3,66; 1,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 3,1</t>
+          <t>-1,53; 4,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 0,38</t>
+          <t>-1,53; 5,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,77; 46,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,22; 25,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,18; 88,82</t>
+          <t>-66,26; 77,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,57; 15,88</t>
+          <t>-57,25; 42,1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-30,52; 131,42</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-26,57; 187,52</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-76,46%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-76,24%</t>
+          <t>-74,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-36,01%</t>
+          <t>-40,47%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-75,89%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-58,02%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; -1,45</t>
+          <t>-9,62; -0,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,14</t>
+          <t>-4,73; 0,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -2,19</t>
+          <t>-7,59; -1,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,34</t>
+          <t>-8,08; -0,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-93,86; -32,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,55; 53,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-91,67; -43,6</t>
+          <t>-95,41; 3,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-83,59; 121,84</t>
+          <t>-73,73; 31,89</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-92,32; -42,28</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-85,56; 6,29</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>-8,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>109,91%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-7,58%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,31</t>
+          <t>-3,52; 2,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,35</t>
+          <t>0,6; 7,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,77</t>
+          <t>-5,19; 3,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 25,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 51,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 40,92</t>
+          <t>-45,42; 45,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 79,69</t>
+          <t>2,37; 312,37</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-54,82; 86,28</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-11,54%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12,51%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,27%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 1,55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 2,61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 2,65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 3,6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-36,01; 29,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 57,91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-20,62; 49,32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-18,24; 64,57</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_6-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_6-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,54</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>36,9%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>23,44%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>48,67%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>53,55%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>6.558708851402771</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.048469934219543</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.90452422544079</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.972628088479279</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.5895099185659461</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2578990291177349</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.5110543335076878</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.5441339042834081</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; 14,41</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 9,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 11,62</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 16,27</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-26,96; 202,98</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-23,89; 116,59</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 135,14</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-16,2; 240,35</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.121362832353293</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.309554049936036</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.0009118099156994548</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.408970515401074</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.1530254897348485</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2220352710447171</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.0110863525809302</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1712370720532914</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.1094533964582</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.774762181152468</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.41825818834183</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>16.96262705476731</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>2.506294995315577</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.23582088918654</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.446375656616838</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.340899539626168</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,39</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-22,84%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-22,47%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>21,26%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>42,9%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 3,13</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 1,26</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 4,71</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 5,98</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-66,26; 77,64</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-57,25; 42,1</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-30,52; 131,42</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-26,57; 187,52</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-1.632287216695953</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.032009149614297</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.70346464320716</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.999962053161538</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.2921309197744389</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.221377982864456</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1638046082320803</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.4365966744111914</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,63</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,51</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-74,3%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-40,47%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-75,89%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-58,02%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.100728178895646</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.462491989677266</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.598831967588039</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.298136565314119</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.6972103427102108</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5860136503468087</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3205408532440424</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2236809814831872</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,62; -0,81</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 0,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,59; -1,96</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; -0,18</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-95,41; 3,37</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-73,73; 31,89</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-92,32; -42,28</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-85,56; 6,29</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.744547002856311</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.247773525651001</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.017064205864665</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.93609717608188</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.5374446110456655</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3951126547905655</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.169598483905132</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.810620491889177</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-8,82%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>109,91%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-7,58%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-4.473401580135934</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.071752003637318</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.70732667614244</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.694105880723404</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.7870185499255755</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4434971008542687</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.7730387841733534</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.603648571891121</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 2,18</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 7,1</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-5,19; 3,85</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-45,42; 45,51</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 312,37</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-54,82; 86,28</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.57841156377113</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.247488235284326</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.350508804950421</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.189100378622028</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.9618265997011802</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.76964360639544</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.9279158245892075</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.8628149827913237</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-1.072984409119391</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.4011602879503222</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-2.16145064450748</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.2753081705489285</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>-0.166335500472854</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.238698724929421</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.4479028624203954</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.00034260578721566</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-11,54%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>12,51%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>10,4%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>16,27%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 1,55</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 2,61</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 2,65</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 3,6</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-36,01; 29,41</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-17,16; 57,91</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-20,62; 49,32</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-18,24; 64,57</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.9369695997440746</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2535962853873849</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6053530329271528</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.776378494439021</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.1435453402267185</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.04145938768530479</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.09471323678064497</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2657257010009976</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.870788330046258</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.297345978682162</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.610246482659656</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.479279638930156</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.4685243062306915</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3271930861572378</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2147676087065589</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1837168234410492</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.021655966260214</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.812722878720866</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.666528357181567</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.732594971963241</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.3917383696661841</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3655242085179218</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.4858733227281767</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8834028899147777</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
